--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202E68A-B79E-4CE4-9816-CA5310149450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C90823-180A-4A41-B987-01C5236CFB35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Hưng</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Toàn</t>
+  </si>
+  <si>
+    <t>Long Giang</t>
+  </si>
+  <si>
+    <t>20/03: Về sớm</t>
   </si>
 </sst>
 </file>
@@ -364,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
@@ -433,6 +439,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
